--- a/Results/case1/0.8.xlsx
+++ b/Results/case1/0.8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_8080678E474EB84EE72564B74F5DCE3A6745D673" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{83272260-F8F1-40EA-8980-829E6237F9DE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_8080678E474EB84EE72564B74F5DCE3A6745D673" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F452B287-CC80-43EF-8EA1-11B5CAED0EB5}"/>
   <bookViews>
-    <workbookView xWindow="27750" yWindow="2955" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1950" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.95409999999999995</c:v>
+                  <c:v>0.97740000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96530000000000005</c:v>
+                  <c:v>0.9778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97340000000000004</c:v>
+                  <c:v>0.98129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97509999999999997</c:v>
+                  <c:v>0.98309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97789999999999999</c:v>
+                  <c:v>0.9859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97860000000000003</c:v>
+                  <c:v>0.98509999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9788</c:v>
+                  <c:v>0.98480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97889999999999999</c:v>
+                  <c:v>0.98470000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98729999999999996</c:v>
+                  <c:v>0.98550000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,15 +1081,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.94489999999999996</v>
+        <v>0.97170000000000001</v>
       </c>
       <c r="C2">
-        <v>0.54110000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D2">
-        <v>0.95340000000000003</v>
+        <v>0.9778</v>
       </c>
       <c r="E2">
-        <v>0.53400000000000003</v>
+        <v>0.5242</v>
       </c>
       <c r="F2">
-        <v>0.9677</v>
+        <v>0.9758</v>
       </c>
       <c r="G2">
-        <v>0.49680000000000002</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="H2">
-        <v>0.96870000000000001</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="I2">
-        <v>0.49669999999999997</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="J2">
-        <v>0.96699999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="K2">
-        <v>0.49419999999999997</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="L2">
-        <v>0.96699999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="M2">
-        <v>0.49419999999999997</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="N2">
-        <v>0.96750000000000003</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="O2">
-        <v>0.49359999999999998</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="P2">
-        <v>0.96799999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="Q2">
-        <v>0.49440000000000001</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="R2">
-        <v>0.95509999999999995</v>
+        <v>0.95809999999999995</v>
       </c>
       <c r="S2">
-        <v>0.50209999999999999</v>
+        <v>0.50419999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.89539999999999997</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="C3">
-        <v>0.63680000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D3">
-        <v>0.89980000000000004</v>
+        <v>0.91020000000000001</v>
       </c>
       <c r="E3">
-        <v>0.57589999999999997</v>
+        <v>0.62519999999999998</v>
       </c>
       <c r="F3">
-        <v>0.83069999999999999</v>
+        <v>0.90549999999999997</v>
       </c>
       <c r="G3">
-        <v>0.72430000000000005</v>
+        <v>0.65939999999999999</v>
       </c>
       <c r="H3">
-        <v>0.83220000000000005</v>
+        <v>0.88959999999999995</v>
       </c>
       <c r="I3">
-        <v>0.7208</v>
+        <v>0.70779999999999998</v>
       </c>
       <c r="J3">
-        <v>0.8891</v>
+        <v>0.9113</v>
       </c>
       <c r="K3">
-        <v>0.59460000000000002</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="L3">
-        <v>0.96579999999999999</v>
+        <v>0.97509999999999997</v>
       </c>
       <c r="M3">
-        <v>0.49540000000000001</v>
+        <v>0.51829999999999998</v>
       </c>
       <c r="N3">
-        <v>0.96460000000000001</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="O3">
-        <v>0.49490000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="P3">
-        <v>0.96519999999999995</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="Q3">
-        <v>0.4955</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="R3">
-        <v>0.98729999999999996</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="S3">
-        <v>0.45450000000000002</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.95409999999999995</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="C4">
-        <v>0.54020000000000001</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="D4">
-        <v>0.96530000000000005</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="E4">
-        <v>0.51339999999999997</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="F4">
-        <v>0.95709999999999995</v>
+        <v>0.97629999999999995</v>
       </c>
       <c r="G4">
-        <v>0.50980000000000003</v>
+        <v>0.50549999999999995</v>
       </c>
       <c r="H4">
-        <v>0.97509999999999997</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="I4">
-        <v>0.48620000000000002</v>
+        <v>0.50390000000000001</v>
       </c>
       <c r="J4">
-        <v>0.94920000000000004</v>
+        <v>0.95009999999999994</v>
       </c>
       <c r="K4">
         <v>0.52280000000000004</v>
       </c>
       <c r="L4">
-        <v>0.9778</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="M4">
-        <v>0.48099999999999998</v>
+        <v>0.50190000000000001</v>
       </c>
       <c r="N4">
-        <v>0.97770000000000001</v>
+        <v>0.9839</v>
       </c>
       <c r="O4">
-        <v>0.48099999999999998</v>
+        <v>0.50290000000000001</v>
       </c>
       <c r="P4">
-        <v>0.97809999999999997</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="Q4">
-        <v>0.48</v>
+        <v>0.50319999999999998</v>
       </c>
       <c r="R4">
-        <v>0.98409999999999997</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="S4">
-        <v>0.46700000000000003</v>
+        <v>0.50060000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9264</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="C5">
-        <v>0.60129999999999995</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D5">
-        <v>0.9405</v>
+        <v>0.96309999999999996</v>
       </c>
       <c r="E5">
-        <v>0.55110000000000003</v>
+        <v>0.55649999999999999</v>
       </c>
       <c r="F5">
-        <v>0.97119999999999995</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="G5">
-        <v>0.48749999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="H5">
-        <v>0.97270000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I5">
-        <v>0.48720000000000002</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="J5">
-        <v>0.97399999999999998</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="K5">
-        <v>0.48659999999999998</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="L5">
-        <v>0.97860000000000003</v>
+        <v>0.9849</v>
       </c>
       <c r="M5">
-        <v>0.47449999999999998</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="N5">
-        <v>0.97719999999999996</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="O5">
-        <v>0.48099999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="P5">
-        <v>0.9778</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="Q5">
-        <v>0.48020000000000002</v>
+        <v>0.50319999999999998</v>
       </c>
       <c r="R5">
-        <v>0.97719999999999996</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="S5">
-        <v>0.49120000000000003</v>
+        <v>0.50060000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.84279999999999999</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="C6">
-        <v>0.67300000000000004</v>
+        <v>0.6673</v>
       </c>
       <c r="D6">
-        <v>0.9274</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="E6">
-        <v>0.5655</v>
+        <v>0.52780000000000005</v>
       </c>
       <c r="F6">
-        <v>0.9718</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="G6">
-        <v>0.4879</v>
+        <v>0.502</v>
       </c>
       <c r="H6">
-        <v>0.97360000000000002</v>
+        <v>0.9819</v>
       </c>
       <c r="I6">
-        <v>0.48659999999999998</v>
+        <v>0.50560000000000005</v>
       </c>
       <c r="J6">
-        <v>0.97709999999999997</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="K6">
-        <v>0.48110000000000003</v>
+        <v>0.50219999999999998</v>
       </c>
       <c r="L6">
-        <v>0.97470000000000001</v>
+        <v>0.9849</v>
       </c>
       <c r="M6">
-        <v>0.49299999999999999</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="N6">
-        <v>0.97760000000000002</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="O6">
-        <v>0.48099999999999998</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="P6">
-        <v>0.97819999999999996</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="Q6">
-        <v>0.48010000000000003</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="R6">
-        <v>0.97519999999999996</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="S6">
-        <v>0.49259999999999998</v>
+        <v>0.50080000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.82950000000000002</v>
+        <v>0.90149999999999997</v>
       </c>
       <c r="C7">
-        <v>0.75080000000000002</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="D7">
-        <v>0.93589999999999995</v>
+        <v>0.97460000000000002</v>
       </c>
       <c r="E7">
-        <v>0.55879999999999996</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="F7">
-        <v>0.97109999999999996</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G7">
-        <v>0.48859999999999998</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="H7">
-        <v>0.97250000000000003</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I7">
-        <v>0.48709999999999998</v>
+        <v>0.50539999999999996</v>
       </c>
       <c r="J7">
-        <v>0.97789999999999999</v>
+        <v>0.9859</v>
       </c>
       <c r="K7">
-        <v>0.48020000000000002</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L7">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M7">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N7">
-        <v>0.97740000000000005</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="O7">
-        <v>0.48099999999999998</v>
+        <v>0.50409999999999999</v>
       </c>
       <c r="P7">
-        <v>0.9778</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.48020000000000002</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R7">
-        <v>0.97719999999999996</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="S7">
-        <v>0.49120000000000003</v>
+        <v>0.50090000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.84150000000000003</v>
+        <v>0.8841</v>
       </c>
       <c r="C8">
-        <v>0.70689999999999997</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="D8">
-        <v>0.93899999999999995</v>
+        <v>0.9677</v>
       </c>
       <c r="E8">
-        <v>0.55330000000000001</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="F8">
-        <v>0.97309999999999997</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G8">
-        <v>0.48720000000000002</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="H8">
-        <v>0.97270000000000001</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="I8">
-        <v>0.48720000000000002</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="J8">
-        <v>0.97789999999999999</v>
+        <v>0.9859</v>
       </c>
       <c r="K8">
-        <v>0.4803</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L8">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M8">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N8">
-        <v>0.97740000000000005</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O8">
-        <v>0.48099999999999998</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="P8">
-        <v>0.9778</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.48020000000000002</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R8">
-        <v>0.97719999999999996</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="S8">
-        <v>0.49120000000000003</v>
+        <v>0.50070000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.83640000000000003</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="C9">
-        <v>0.71350000000000002</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D9">
-        <v>0.93500000000000005</v>
+        <v>0.96789999999999998</v>
       </c>
       <c r="E9">
-        <v>0.55789999999999995</v>
+        <v>0.5403</v>
       </c>
       <c r="F9">
-        <v>0.97340000000000004</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G9">
-        <v>0.48709999999999998</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="H9">
-        <v>0.97250000000000003</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="I9">
-        <v>0.48720000000000002</v>
+        <v>0.50639999999999996</v>
       </c>
       <c r="J9">
-        <v>0.97729999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K9">
-        <v>0.48039999999999999</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L9">
-        <v>0.97670000000000001</v>
+        <v>0.9849</v>
       </c>
       <c r="M9">
-        <v>0.4914</v>
+        <v>0.50290000000000001</v>
       </c>
       <c r="N9">
-        <v>0.97760000000000002</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="O9">
-        <v>0.48099999999999998</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="P9">
-        <v>0.9778</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.48020000000000002</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R9">
-        <v>0.97719999999999996</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="S9">
-        <v>0.49120000000000003</v>
+        <v>0.50080000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.84050000000000002</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="C10">
-        <v>0.6915</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="D10">
-        <v>0.94110000000000005</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="E10">
-        <v>0.55159999999999998</v>
+        <v>0.5302</v>
       </c>
       <c r="F10">
-        <v>0.96650000000000003</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G10">
-        <v>0.51039999999999996</v>
+        <v>0.50219999999999998</v>
       </c>
       <c r="H10">
-        <v>0.9718</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="I10">
-        <v>0.48870000000000002</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="J10">
-        <v>0.97719999999999996</v>
+        <v>0.9859</v>
       </c>
       <c r="K10">
-        <v>0.48060000000000003</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L10">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M10">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N10">
-        <v>0.97740000000000005</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O10">
-        <v>0.48099999999999998</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="P10">
-        <v>0.9778</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q10">
-        <v>0.48020000000000002</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R10">
-        <v>0.9758</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S10">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.83009999999999995</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="C11">
-        <v>0.7681</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="D11">
-        <v>0.94110000000000005</v>
+        <v>0.97419999999999995</v>
       </c>
       <c r="E11">
-        <v>0.55159999999999998</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="F11">
-        <v>0.9647</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G11">
-        <v>0.51149999999999995</v>
+        <v>0.502</v>
       </c>
       <c r="H11">
-        <v>0.9718</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="I11">
-        <v>0.4884</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="J11">
-        <v>0.97719999999999996</v>
+        <v>0.9859</v>
       </c>
       <c r="K11">
-        <v>0.48060000000000003</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L11">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M11">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N11">
-        <v>0.97760000000000002</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O11">
-        <v>0.48099999999999998</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="P11">
-        <v>0.9778</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.48020000000000002</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R11">
-        <v>0.9758</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="S11">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.94450000000000001</v>
+        <v>0.88039999999999996</v>
       </c>
       <c r="C12">
-        <v>0.56940000000000002</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="D12">
-        <v>0.94110000000000005</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="E12">
-        <v>0.55159999999999998</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="F12">
-        <v>0.96360000000000001</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G12">
-        <v>0.51249999999999996</v>
+        <v>0.502</v>
       </c>
       <c r="H12">
-        <v>0.97150000000000003</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="I12">
-        <v>0.48859999999999998</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="J12">
-        <v>0.97719999999999996</v>
+        <v>0.9859</v>
       </c>
       <c r="K12">
-        <v>0.48060000000000003</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L12">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M12">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N12">
-        <v>0.9778</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O12">
-        <v>0.48039999999999999</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="P12">
-        <v>0.97770000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q12">
-        <v>0.48010000000000003</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R12">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S12">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.83120000000000005</v>
+        <v>0.88819999999999999</v>
       </c>
       <c r="C13">
-        <v>0.76100000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="D13">
-        <v>0.93159999999999998</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="E13">
-        <v>0.56399999999999995</v>
+        <v>0.54310000000000003</v>
       </c>
       <c r="F13">
-        <v>0.96440000000000003</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="G13">
-        <v>0.5131</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="H13">
-        <v>0.97219999999999995</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="I13">
-        <v>0.48809999999999998</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="J13">
-        <v>0.9718</v>
+        <v>0.9859</v>
       </c>
       <c r="K13">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="L13">
+        <v>0.9849</v>
+      </c>
+      <c r="M13">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="P13">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="Q13">
         <v>0.50339999999999996</v>
       </c>
-      <c r="L13">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="M13">
-        <v>0.4914</v>
-      </c>
-      <c r="N13">
-        <v>0.9788</v>
-      </c>
-      <c r="O13">
-        <v>0.4748</v>
-      </c>
-      <c r="P13">
-        <v>0.9778</v>
-      </c>
-      <c r="Q13">
-        <v>0.48</v>
-      </c>
       <c r="R13">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S13">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.83120000000000005</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="C14">
-        <v>0.76100000000000001</v>
+        <v>0.73140000000000005</v>
       </c>
       <c r="D14">
-        <v>0.93840000000000001</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="E14">
-        <v>0.55510000000000004</v>
+        <v>0.5504</v>
       </c>
       <c r="F14">
-        <v>0.96440000000000003</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="G14">
-        <v>0.5131</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="H14">
-        <v>0.97189999999999999</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="I14">
-        <v>0.4884</v>
+        <v>0.50670000000000004</v>
       </c>
       <c r="J14">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K14">
-        <v>0.36370000000000002</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L14">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M14">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N14">
-        <v>0.97499999999999998</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O14">
-        <v>0.49309999999999998</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="P14">
-        <v>0.97789999999999999</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q14">
-        <v>0.47989999999999999</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R14">
-        <v>0.9758</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="S14">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.83120000000000005</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="C15">
-        <v>0.76100000000000001</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="D15">
-        <v>0.93159999999999998</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="E15">
-        <v>0.56399999999999995</v>
+        <v>0.5504</v>
       </c>
       <c r="F15">
-        <v>0.96440000000000003</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="G15">
-        <v>0.5131</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="H15">
-        <v>0.97219999999999995</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="I15">
-        <v>0.48809999999999998</v>
+        <v>0.5081</v>
       </c>
       <c r="J15">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K15">
-        <v>0.36359999999999998</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L15">
-        <v>0.97670000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="M15">
-        <v>0.4914</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="N15">
-        <v>0.97499999999999998</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O15">
-        <v>0.49309999999999998</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="P15">
-        <v>0.97789999999999999</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q15">
-        <v>0.47989999999999999</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R15">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S15">
-        <v>0.49230000000000002</v>
+        <v>0.50080000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.83120000000000005</v>
+        <v>0.89139999999999997</v>
       </c>
       <c r="C16">
-        <v>0.76100000000000001</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="D16">
-        <v>0.93149999999999999</v>
+        <v>0.96450000000000002</v>
       </c>
       <c r="E16">
-        <v>0.56410000000000005</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="F16">
-        <v>0.96260000000000001</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="G16">
-        <v>0.51139999999999997</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="H16">
-        <v>0.97219999999999995</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="I16">
-        <v>0.48809999999999998</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="J16">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K16">
-        <v>0.36359999999999998</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L16">
-        <v>0.97670000000000001</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="M16">
-        <v>0.4914</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="N16">
-        <v>0.97499999999999998</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="O16">
-        <v>0.49309999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="P16">
-        <v>0.97860000000000003</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q16">
-        <v>0.47920000000000001</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R16">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S16">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.83120000000000005</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="C17">
-        <v>0.76100000000000001</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="D17">
-        <v>0.93910000000000005</v>
+        <v>0.9607</v>
       </c>
       <c r="E17">
-        <v>0.55459999999999998</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F17">
-        <v>0.96</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G17">
-        <v>0.51400000000000001</v>
+        <v>0.49930000000000002</v>
       </c>
       <c r="H17">
-        <v>0.97189999999999999</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="I17">
-        <v>0.48849999999999999</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="J17">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K17">
-        <v>0.36359999999999998</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="L17">
-        <v>0.97750000000000004</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="M17">
-        <v>0.4894</v>
+        <v>0.50380000000000003</v>
       </c>
       <c r="N17">
-        <v>0.97499999999999998</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O17">
-        <v>0.49309999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="P17">
-        <v>0.97829999999999995</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q17">
-        <v>0.4793</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R17">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S17">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.83120000000000005</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="C18">
-        <v>0.76100000000000001</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="D18">
-        <v>0.93140000000000001</v>
+        <v>0.96540000000000004</v>
       </c>
       <c r="E18">
-        <v>0.56410000000000005</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="F18">
-        <v>0.96</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G18">
-        <v>0.51380000000000003</v>
+        <v>0.49930000000000002</v>
       </c>
       <c r="H18">
-        <v>0.97209999999999996</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="I18">
-        <v>0.48830000000000001</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="J18">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K18">
-        <v>0.36359999999999998</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="L18">
-        <v>0.97589999999999999</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="M18">
-        <v>0.4904</v>
+        <v>0.50429999999999997</v>
       </c>
       <c r="N18">
-        <v>0.97270000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O18">
-        <v>0.501</v>
+        <v>0.504</v>
       </c>
       <c r="P18">
-        <v>0.97829999999999995</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q18">
-        <v>0.4793</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R18">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S18">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.83120000000000005</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="C19">
-        <v>0.76100000000000001</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="D19">
-        <v>0.93149999999999999</v>
+        <v>0.9607</v>
       </c>
       <c r="E19">
-        <v>0.56410000000000005</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F19">
-        <v>0.9597</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="G19">
-        <v>0.51339999999999997</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="H19">
-        <v>0.97209999999999996</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="I19">
-        <v>0.48830000000000001</v>
+        <v>0.50670000000000004</v>
       </c>
       <c r="J19">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K19">
-        <v>0.36359999999999998</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="L19">
-        <v>0.97750000000000004</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="M19">
-        <v>0.4894</v>
+        <v>0.50429999999999997</v>
       </c>
       <c r="N19">
-        <v>0.97270000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O19">
-        <v>0.501</v>
+        <v>0.504</v>
       </c>
       <c r="P19">
-        <v>0.97829999999999995</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q19">
-        <v>0.4793</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R19">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S19">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.83120000000000005</v>
+        <v>0.89459999999999995</v>
       </c>
       <c r="C20">
-        <v>0.76100000000000001</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="D20">
-        <v>0.93149999999999999</v>
+        <v>0.96540000000000004</v>
       </c>
       <c r="E20">
-        <v>0.56410000000000005</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="F20">
-        <v>0.95169999999999999</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="G20">
-        <v>0.5222</v>
+        <v>0.50109999999999999</v>
       </c>
       <c r="H20">
-        <v>0.97140000000000004</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="I20">
-        <v>0.49009999999999998</v>
+        <v>0.50670000000000004</v>
       </c>
       <c r="J20">
-        <v>0.74339999999999995</v>
+        <v>0.9859</v>
       </c>
       <c r="K20">
-        <v>0.36359999999999998</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="L20">
-        <v>0.97750000000000004</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="M20">
-        <v>0.4894</v>
+        <v>0.50429999999999997</v>
       </c>
       <c r="N20">
-        <v>0.97270000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="O20">
-        <v>0.501</v>
+        <v>0.50390000000000001</v>
       </c>
       <c r="P20">
-        <v>0.97889999999999999</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="Q20">
-        <v>0.4788</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="R20">
-        <v>0.9758</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="S20">
-        <v>0.49230000000000002</v>
+        <v>0.50119999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,44 +2934,45 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.95409999999999995</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.96530000000000005</v>
+        <v>0.9778</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.97340000000000004</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.97509999999999997</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.97789999999999999</v>
+        <v>0.9859</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.97860000000000003</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.9788</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.97889999999999999</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.98729999999999996</v>
+        <v>0.98550000000000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>